--- a/xlsx/学术_intext.xlsx
+++ b/xlsx/学术_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>学术</t>
   </si>
@@ -29,7 +29,7 @@
     <t>学问</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_学术</t>
+    <t>政策_政策_维基百科_学术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%B6%AD%E6%96%B0</t>
   </si>
   <si>
-    <t>明治維新</t>
+    <t>明治维新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%9B%AD</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%A2%E5%A3%AB</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -143,67 +143,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%90%E7%9B%A3</t>
   </si>
   <si>
-    <t>國子監</t>
+    <t>国子监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>理學</t>
+    <t>理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%AD%B8%E5%9B%9B%E7%A7%91</t>
   </si>
   <si>
-    <t>三學四科</t>
+    <t>三学四科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%BD%8D</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>學士學位</t>
+    <t>学士学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96_(%E6%9C%A8%E6%A8%A8%E7%A7%91)</t>
   </si>
   <si>
-    <t>橄欖 (木樨科)</t>
+    <t>橄榄 (木樨科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>體育館</t>
+    <t>体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -281,43 +281,40 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀大學</t>
+    <t>中世纪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%A3%AB</t>
   </si>
   <si>
-    <t>隱士</t>
+    <t>隐士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>黑暗時期</t>
+    <t>黑暗时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B9%BE%E9%87%8C%E5%BE%97</t>
   </si>
   <si>
-    <t>歐幾里得</t>
+    <t>欧几里得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC</t>
   </si>
   <si>
-    <t>荷馬</t>
+    <t>荷马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%A6%8F%E5%85%8B%E5%8B%92%E6%96%AF</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9A%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>波隆納</t>
+    <t>波隆纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -347,43 +344,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>語法</t>
+    <t>语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%AD</t>
   </si>
   <si>
-    <t>修辭</t>
+    <t>修辞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF</t>
   </si>
   <si>
-    <t>邏輯</t>
+    <t>逻辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E8%A1%93</t>
   </si>
   <si>
-    <t>算術</t>
+    <t>算术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E4%BD%95</t>
   </si>
   <si>
-    <t>幾何</t>
+    <t>几何</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>音樂</t>
+    <t>音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87</t>
@@ -395,25 +392,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院哲學</t>
+    <t>经院哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E7%B4%8D</t>
   </si>
   <si>
-    <t>托馬斯·阿奎納</t>
+    <t>托马斯·阿奎纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>塞維爾</t>
+    <t>塞维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BC%8A%E8%A5%BF%E5%A4%9A%E5%B0%94</t>
@@ -425,19 +422,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%AF%E7%88%BE%E7%B4%8D%E9%90%B8</t>
   </si>
   <si>
-    <t>聖伯爾納鐸</t>
+    <t>圣伯尔纳铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E9%9B%85%E4%BC%AF%E6%8B%89</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E7%B4%8D</t>
   </si>
   <si>
-    <t>聖托馬斯·阿奎納</t>
+    <t>圣托马斯·阿奎纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -461,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>英國皇家學會</t>
+    <t>英国皇家学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%97%9D%E8%A1%93%E5%92%8C%E7%A7%91%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國藝術和科學學院</t>
+    <t>美国艺术和科学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>班傑明·富蘭克林</t>
+    <t>班杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -497,25 +494,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文科學</t>
+    <t>人文科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%81%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>人道主義</t>
+    <t>人道主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞</t>
+    <t>宾夕法尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D</t>
   </si>
   <si>
-    <t>印第安納</t>
+    <t>印第安纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A</t>
@@ -545,25 +542,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>啟蒙時期</t>
+    <t>启蒙时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E5%87%BA%E7%89%88</t>
@@ -575,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%A9%E5%85%8B%C2%B7%E7%89%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>艾薩克·牛頓</t>
+    <t>艾萨克·牛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%B8%83%E5%B0%BC%E8%8C%B2</t>
   </si>
   <si>
-    <t>萊布尼茲</t>
+    <t>莱布尼兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%8E%AB%E9%A1%BF</t>
@@ -617,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>學科列表</t>
+    <t>学科列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%A1%8C%E8%A9%95%E5%AF%A9</t>
   </si>
   <si>
-    <t>同行評審</t>
+    <t>同行评审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科學方法</t>
+    <t>科学方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -641,19 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
   </si>
   <si>
-    <t>知识</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔芭芭拉加利福尼亞大學</t>
+    <t>圣塔芭芭拉加利福尼亚大学</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2407,7 @@
         <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2442,10 +2433,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2471,10 +2462,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2500,10 +2491,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2529,10 +2520,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2558,10 +2549,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2587,10 +2578,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2616,10 +2607,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2645,10 +2636,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2674,10 +2665,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2703,10 +2694,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2732,10 +2723,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2761,10 +2752,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2790,10 +2781,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2819,10 +2810,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2848,10 +2839,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2877,10 +2868,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -2906,10 +2897,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2935,10 +2926,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2964,10 +2955,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2993,10 +2984,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3022,10 +3013,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3051,10 +3042,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3080,10 +3071,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3109,10 +3100,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3138,10 +3129,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3167,10 +3158,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3196,10 +3187,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3225,10 +3216,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3254,10 +3245,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3283,10 +3274,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3312,10 +3303,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3341,10 +3332,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3370,10 +3361,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3399,10 +3390,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3428,10 +3419,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3457,10 +3448,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3486,10 +3477,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3515,10 +3506,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3544,10 +3535,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3573,10 +3564,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3602,10 +3593,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3631,10 +3622,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3660,10 +3651,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3689,10 +3680,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3718,10 +3709,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3747,10 +3738,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3776,10 +3767,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3805,10 +3796,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3834,10 +3825,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3863,10 +3854,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -3892,10 +3883,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3921,10 +3912,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3950,10 +3941,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3979,10 +3970,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4008,10 +3999,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>14</v>
@@ -4037,10 +4028,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4066,10 +4057,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4095,10 +4086,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
